--- a/DMSNewVSale_2025-11-21_18-32.xlsx
+++ b/DMSNewVSale_2025-11-21_18-32.xlsx
@@ -501,6 +501,15 @@
   </si>
   <si>
     <t>50.0000</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -2834,7 +2843,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2844,11 +2853,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>29</v>
@@ -2860,14 +2869,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2877,11 +2886,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>29</v>
@@ -2893,14 +2902,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2914,47 +2923,80 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>175</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>151</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>76</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>176</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>160</v>
       </c>
-      <c t="s" r="Q59" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" ht="25.5" customHeight="1">
-      <c r="N60" s="13">
-        <v>3197.9000000000001</v>
-      </c>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>174</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
-        <v>175</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
-        <v>176</v>
-      </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c t="s" r="Q60" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" ht="26.25" customHeight="1">
+      <c r="N61" s="13">
+        <v>3213.9000000000001</v>
+      </c>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>177</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>178</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>179</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3228,10 +3270,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
